--- a/test/utils/导出用户模板表.xlsx
+++ b/test/utils/导出用户模板表.xlsx
@@ -398,10 +398,10 @@
         <v>test01</v>
       </c>
       <c r="B2" t="str">
-        <v>$2a$10$3V/Xh37fiBB.jreoQqU9FOvYgWHy7HO1JE0xFm0grZsx62mQKie82</v>
+        <v>$2a$10$wLNps1t.cNqVgrbnJ4KMiO5GbN07uORuAVNsvyYI7zZRCPeQypqvq</v>
       </c>
       <c r="C2" s="1">
-        <v>43077.31077546296</v>
+        <v>43077.33491898148</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>test02</v>
       </c>
       <c r="B3" t="str">
-        <v>$2a$10$QlOSz.wQCS0xyYofl0p.GOLAtzxFbZWQ.D8cjyqDLagO8BvVBT4zS</v>
+        <v>$2a$10$fvw.B6e2k2UkOVeGKO.5RupKCRhtVEU3sj7bIFSdrqON8faW/NyJa</v>
       </c>
       <c r="C3" s="1">
-        <v>43077.31077546296</v>
+        <v>43077.33491898148</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>test03</v>
       </c>
       <c r="B4" t="str">
-        <v>$2a$10$Ab053xcQqrW326/BjUgftubu8DLpmCUXaYUjXY8r6Ft6kuXT56Huq</v>
+        <v>$2a$10$mxGEXeTJoN4r9vHeydFRMeh34ky1ahPqbf4/TqlWB.VyF1o0kt9c6</v>
       </c>
       <c r="C4" s="1">
-        <v>43077.31077546296</v>
+        <v>43077.33491898148</v>
       </c>
     </row>
   </sheetData>
